--- a/data/trans_orig/IP11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{190091CB-B634-49B4-AD02-A999F365D72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F4E0A0-EBBF-42C9-943E-DB5926E3DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{30D452B8-346F-462A-BED2-8466A9C45455}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8BD8BEBD-28F5-4AC3-ACC5-5D8372B15882}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="460">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,13 +68,211 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -86,138 +284,129 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
@@ -227,190 +416,58 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -422,181 +479,286 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
   </si>
   <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -605,165 +767,6 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
     <t>90,23%</t>
   </si>
   <si>
@@ -821,6 +824,159 @@
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
@@ -830,103 +986,115 @@
     <t>0,29%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -935,171 +1103,6 @@
     <t>0,69%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
     <t>92,96%</t>
   </si>
   <si>
@@ -1151,85 +1154,214 @@
     <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
     <t>0,56%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
   </si>
   <si>
     <t>0,8%</t>
@@ -1238,133 +1370,43 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -1377,45 +1419,6 @@
   </si>
   <si>
     <t>0,32%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
   </si>
 </sst>
 </file>
@@ -1807,7 +1810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09056251-440C-47C3-8928-A4FAA2E90D8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A24F8-7462-4946-8CA2-41D4E257795F}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1921,155 +1924,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>22452</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>19252</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>41704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>301</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>198439</v>
+        <v>2992</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>188118</v>
+        <v>3472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>601</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>386557</v>
+        <v>6464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>13703</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>7045</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>20748</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,204 +2081,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D7" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N7" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>117383</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>106587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>223969</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
         <v>15</v>
       </c>
-      <c r="C9" s="7">
-        <v>178</v>
-      </c>
       <c r="D9" s="7">
-        <v>117383</v>
+        <v>10250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>106587</v>
+        <v>9415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
-        <v>338</v>
+        <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>223969</v>
+        <v>19666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>10250</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9415</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M10" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>19666</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,13 +2293,13 @@
         <v>127633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>174</v>
@@ -2305,13 +2308,13 @@
         <v>116002</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -2320,168 +2323,168 @@
         <v>243635</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>198439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>188118</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>386557</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7">
-        <v>197139</v>
+        <v>13703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>200276</v>
+        <v>7045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>552</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>397415</v>
+        <v>20748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>10685</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>9039</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>19724</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,204 +2493,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D15" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I15" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N15" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>140762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>131485</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>272247</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>22452</v>
+        <v>8895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6332</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="7">
         <v>24</v>
       </c>
-      <c r="I17" s="7">
-        <v>19252</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>53</v>
-      </c>
       <c r="N17" s="7">
-        <v>41704</v>
+        <v>15227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>2992</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>3472</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M18" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>6464</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,204 +2699,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I19" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>197139</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>200276</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>397415</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>218</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>140762</v>
+        <v>10685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>131485</v>
+        <v>9039</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="M21" s="7">
-        <v>437</v>
+        <v>28</v>
       </c>
       <c r="N21" s="7">
-        <v>272247</v>
+        <v>19724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>8895</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>6332</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>15227</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,204 +2905,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D23" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I23" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N23" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>676175</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>645717</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>128</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1321892</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>1016</v>
+        <v>70</v>
       </c>
       <c r="D25" s="7">
-        <v>676175</v>
+        <v>46525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H25" s="7">
-        <v>965</v>
+        <v>53</v>
       </c>
       <c r="I25" s="7">
-        <v>645717</v>
+        <v>35304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="M25" s="7">
-        <v>1981</v>
+        <v>123</v>
       </c>
       <c r="N25" s="7">
-        <v>1321892</v>
+        <v>81829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>46525</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>35304</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>81829</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,13 +3117,13 @@
         <v>722700</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1018</v>
@@ -3129,13 +3132,13 @@
         <v>681021</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2104</v>
@@ -3144,13 +3147,13 @@
         <v>1403721</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B4718E5-35C8-443F-A938-7018B88363A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF0A81A-5C2F-43DB-9CC2-AEF67C8CC6A1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3191,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3285,155 +3288,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>21586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>43959</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>152</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>296</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>204340</v>
+        <v>3869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>184927</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>31</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
-        <v>583</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>389267</v>
+        <v>3869</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>19495</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="7">
-        <v>21431</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="M6" s="7">
-        <v>60</v>
-      </c>
-      <c r="N6" s="7">
-        <v>40926</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,204 +3445,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>116727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="7">
+        <v>150</v>
+      </c>
+      <c r="I8" s="7">
+        <v>107911</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>224638</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>116727</v>
+        <v>12502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="I9" s="7">
-        <v>107911</v>
+        <v>9073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>224638</v>
+        <v>21575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>12502</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>9073</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="M10" s="7">
-        <v>31</v>
-      </c>
-      <c r="N10" s="7">
-        <v>21575</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3657,13 @@
         <v>129229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -3669,13 +3672,13 @@
         <v>116984</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>346</v>
@@ -3684,168 +3687,168 @@
         <v>246213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>204340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" s="7">
+        <v>287</v>
+      </c>
+      <c r="I12" s="7">
+        <v>184927</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>389267</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>255</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>187194</v>
+        <v>19495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H13" s="7">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>197591</v>
+        <v>21431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
-        <v>513</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>384785</v>
+        <v>40926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>19371</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>12709</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>201</v>
       </c>
       <c r="M14" s="7">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>32080</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,174 +3857,174 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="D15" s="7">
-        <v>206565</v>
+        <v>223835</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I15" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="N15" s="7">
-        <v>416865</v>
+        <v>430193</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>147844</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>203</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H16" s="7">
+        <v>228</v>
+      </c>
+      <c r="I16" s="7">
+        <v>146466</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>294311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>209</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" s="7">
-        <v>21586</v>
+        <v>18141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H17" s="7">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I17" s="7">
-        <v>22373</v>
+        <v>8499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>35</v>
+        <v>216</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>43959</v>
+        <v>26639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>3869</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>215</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4030,28 +4033,28 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3869</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>218</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,204 +4063,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D19" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I19" s="7">
-        <v>22373</v>
+        <v>154965</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N19" s="7">
-        <v>47828</v>
+        <v>320950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>187194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>197591</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>384785</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>230</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>147844</v>
+        <v>19371</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>224</v>
+        <v>34</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H21" s="7">
-        <v>228</v>
+        <v>17</v>
       </c>
       <c r="I21" s="7">
-        <v>146466</v>
+        <v>12709</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="M21" s="7">
-        <v>454</v>
+        <v>43</v>
       </c>
       <c r="N21" s="7">
-        <v>294311</v>
+        <v>32080</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>18141</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>8499</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>236</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>26639</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,204 +4269,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D23" s="7">
-        <v>165985</v>
+        <v>206565</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>154965</v>
+        <v>210300</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N23" s="7">
-        <v>320950</v>
+        <v>416865</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>677692</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>242</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>243</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>659268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>245</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>246</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1336960</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>248</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>966</v>
+        <v>105</v>
       </c>
       <c r="D25" s="7">
-        <v>677692</v>
+        <v>73377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H25" s="7">
-        <v>949</v>
+        <v>75</v>
       </c>
       <c r="I25" s="7">
-        <v>659268</v>
+        <v>51712</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="M25" s="7">
-        <v>1915</v>
+        <v>180</v>
       </c>
       <c r="N25" s="7">
-        <v>1336960</v>
+        <v>125089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>73377</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>252</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>51712</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>254</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>144</v>
       </c>
       <c r="M26" s="7">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>125089</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>256</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4481,13 @@
         <v>751069</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1024</v>
@@ -4493,13 +4496,13 @@
         <v>710980</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2095</v>
@@ -4508,13 +4511,13 @@
         <v>1462049</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -4535,7 +4538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC090F23-B5BD-42AD-9D5B-0C714908C62D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED854B5-8E43-4070-B604-68BE75F893C1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4552,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4649,155 +4652,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>22987</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>262</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>21428</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>264</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>44415</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>314</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>212615</v>
+        <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H5" s="7">
-        <v>319</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>197675</v>
+        <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
-        <v>633</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>410290</v>
+        <v>3686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>11082</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>272</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>273</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H6" s="7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>8955</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>275</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>276</v>
+        <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M6" s="7">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>20037</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>280</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,204 +4809,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>223697</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>206630</v>
+        <v>22527</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>664</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>430327</v>
+        <v>48101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>114429</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H8" s="7">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7">
+        <v>105284</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>219713</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>283</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>284</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>114429</v>
+        <v>7394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>149</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H9" s="7">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>105284</v>
+        <v>5896</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M9" s="7">
-        <v>308</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>219713</v>
+        <v>13290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>7394</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>5896</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>121</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>13290</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5021,13 @@
         <v>121823</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>163</v>
@@ -5033,13 +5036,13 @@
         <v>111180</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>327</v>
@@ -5048,168 +5051,168 @@
         <v>233003</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>212615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>296</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>197675</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>10</v>
+        <v>297</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>410290</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>274</v>
+        <v>17</v>
       </c>
       <c r="D13" s="7">
-        <v>193967</v>
+        <v>11082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>202774</v>
+        <v>8955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="M13" s="7">
-        <v>549</v>
+        <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>396741</v>
+        <v>20037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>11769</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>307</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>2954</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>310</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>311</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M14" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>14723</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>313</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,201 +5221,201 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="D15" s="7">
-        <v>205736</v>
+        <v>223697</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>279</v>
+        <v>333</v>
       </c>
       <c r="I15" s="7">
-        <v>205728</v>
+        <v>206630</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>569</v>
+        <v>664</v>
       </c>
       <c r="N15" s="7">
-        <v>411464</v>
+        <v>430327</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>158781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>315</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>316</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>151532</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>310314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>22987</v>
+        <v>7892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>21428</v>
+        <v>4465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>44415</v>
+        <v>12356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>2587</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>326</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>327</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>1099</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>329</v>
+        <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N18" s="7">
-        <v>3686</v>
+        <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>331</v>
+        <v>31</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>332</v>
+        <v>32</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>333</v>
@@ -5424,204 +5427,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I19" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N19" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>193967</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>334</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>202774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>10</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>396741</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>10</v>
+        <v>340</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="D21" s="7">
-        <v>158781</v>
+        <v>11769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="H21" s="7">
-        <v>251</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>151532</v>
+        <v>2954</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="M21" s="7">
-        <v>487</v>
+        <v>20</v>
       </c>
       <c r="N21" s="7">
-        <v>310314</v>
+        <v>14723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>7892</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>4465</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>347</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>12356</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,204 +5633,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D23" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I23" s="7">
-        <v>155997</v>
+        <v>205728</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N23" s="7">
-        <v>322670</v>
+        <v>411464</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>702779</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="H24" s="7">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="I24" s="7">
-        <v>0</v>
+        <v>678692</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>10</v>
+        <v>356</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>357</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>124</v>
+        <v>358</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>1381471</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>360</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>1005</v>
+        <v>58</v>
       </c>
       <c r="D25" s="7">
-        <v>702779</v>
+        <v>40724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="H25" s="7">
-        <v>1022</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>678692</v>
+        <v>23369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="M25" s="7">
-        <v>2027</v>
+        <v>94</v>
       </c>
       <c r="N25" s="7">
-        <v>1381471</v>
+        <v>64093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>40724</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>361</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>362</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>23369</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>363</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>364</v>
+        <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>365</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>64093</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>368</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5845,13 @@
         <v>743503</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>1058</v>
@@ -5857,13 +5860,13 @@
         <v>702061</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>2121</v>
@@ -5872,13 +5875,13 @@
         <v>1445564</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5899,7 +5902,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16214DEA-9A32-4554-B592-EBBA0A5F5F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E9589-2A94-4A64-B823-BDF6DDCA48D4}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5916,7 +5919,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6013,155 +6016,155 @@
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5">
-        <v>996</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>16381</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>10</v>
+        <v>372</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>373</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>29079</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>10</v>
+        <v>374</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>243656</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>32</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>187678</v>
+        <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
-        <v>610</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>431334</v>
+        <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>5536</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>4674</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="M6" s="7">
-        <v>12</v>
-      </c>
-      <c r="N6" s="7">
-        <v>10210</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,204 +6173,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>249192</v>
+        <v>12698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>622</v>
+        <v>47</v>
       </c>
       <c r="N7" s="7">
-        <v>441544</v>
+        <v>29485</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5">
-        <v>996</v>
+        <v>37</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>112352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>382</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>384</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>100735</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>10</v>
+        <v>385</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>386</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>213086</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>10</v>
+        <v>322</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D9" s="7">
-        <v>112352</v>
+        <v>2244</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7">
-        <v>100735</v>
+        <v>3160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>390</v>
+        <v>35</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>66</v>
+        <v>391</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>391</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>9</v>
       </c>
       <c r="N9" s="7">
-        <v>213086</v>
+        <v>5404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>392</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>395</v>
-      </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>3160</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>396</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>392</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>5404</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>386</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6382,13 +6385,13 @@
         <v>114596</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
         <v>168</v>
@@ -6397,13 +6400,13 @@
         <v>103895</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
         <v>320</v>
@@ -6412,168 +6415,168 @@
         <v>218490</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="5">
-        <v>996</v>
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>243656</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>394</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="7">
+        <v>274</v>
+      </c>
+      <c r="I12" s="7">
+        <v>187678</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>431334</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>167843</v>
+        <v>5536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H13" s="7">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>169393</v>
+        <v>4674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M13" s="7">
-        <v>464</v>
+        <v>12</v>
       </c>
       <c r="N13" s="7">
-        <v>337235</v>
+        <v>10210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>7173</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="H14" s="7">
-        <v>4</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2550</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="M14" s="7">
-        <v>14</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9723</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6582,159 +6585,159 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>175016</v>
+        <v>249192</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I15" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>478</v>
+        <v>622</v>
       </c>
       <c r="N15" s="7">
-        <v>346958</v>
+        <v>441544</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="5">
-        <v>996</v>
+        <v>81</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>165752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>161073</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>326825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>10</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>9</v>
+      </c>
+      <c r="D17" s="7">
+        <v>7456</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="7">
+        <v>10</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6411</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="7">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
-        <v>12698</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="7">
-        <v>27</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16381</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="7">
-        <v>46</v>
-      </c>
       <c r="N17" s="7">
-        <v>29079</v>
+        <v>13867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -6743,43 +6746,43 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>406</v>
+        <v>833</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>406</v>
+        <v>833</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6788,204 +6791,204 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>16787</v>
+        <v>168317</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="N19" s="7">
-        <v>29485</v>
+        <v>341525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="5">
-        <v>996</v>
+        <v>103</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>167843</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H20" s="7">
+        <v>236</v>
+      </c>
+      <c r="I20" s="7">
+        <v>169393</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>833</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>464</v>
+      </c>
+      <c r="N20" s="7">
+        <v>337235</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>833</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="D21" s="7">
-        <v>165752</v>
+        <v>7173</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="H21" s="7">
-        <v>215</v>
+        <v>4</v>
       </c>
       <c r="I21" s="7">
-        <v>161073</v>
+        <v>2550</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>320</v>
+        <v>437</v>
       </c>
       <c r="M21" s="7">
-        <v>431</v>
+        <v>14</v>
       </c>
       <c r="N21" s="7">
-        <v>326825</v>
+        <v>9723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>7456</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>437</v>
+        <v>31</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>32</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>6411</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>31</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>32</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>441</v>
       </c>
       <c r="M22" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>13867</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>440</v>
+        <v>32</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6994,204 +6997,204 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D23" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="I23" s="7">
-        <v>168317</v>
+        <v>171943</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N23" s="7">
-        <v>341525</v>
+        <v>346958</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
-        <v>996</v>
+      <c r="B24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>702300</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>443</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>915</v>
       </c>
       <c r="I24" s="7">
-        <v>833</v>
+        <v>635260</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>10</v>
+        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>334</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>1862</v>
       </c>
       <c r="N24" s="7">
-        <v>833</v>
+        <v>1337560</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>10</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>445</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>947</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>702300</v>
+        <v>22410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
-        <v>915</v>
+        <v>26</v>
       </c>
       <c r="I25" s="7">
-        <v>635260</v>
+        <v>17201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>449</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
       <c r="M25" s="7">
-        <v>1862</v>
+        <v>55</v>
       </c>
       <c r="N25" s="7">
-        <v>1337560</v>
+        <v>39611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>132</v>
+        <v>454</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>22410</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>17201</v>
+        <v>833</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>345</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="M26" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>39611</v>
+        <v>833</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>457</v>
+        <v>31</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7209,13 @@
         <v>724710</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H27" s="7">
         <v>942</v>
@@ -7221,13 +7224,13 @@
         <v>653294</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M27" s="7">
         <v>1918</v>
@@ -7236,13 +7239,13 @@
         <v>1378003</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7F4E0A0-EBBF-42C9-943E-DB5926E3DAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6918AE72-8452-4DD0-8DC2-2C013EA703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8BD8BEBD-28F5-4AC3-ACC5-5D8372B15882}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A5DBF49-0801-490F-9E07-5FAD213C115C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="460">
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="465">
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,82 +71,82 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>996.0</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>88,24%</t>
   </si>
   <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>996.0</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -155,1270 +155,1285 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>91,88%</t>
   </si>
   <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>91,93%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,69%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitao su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
   </si>
   <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
+    <t>97,73%</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1444,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1525,39 +1540,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1609,7 +1624,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1720,13 +1735,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1735,6 +1743,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1799,19 +1814,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961A24F8-7462-4946-8CA2-41D4E257795F}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C379348A-825A-4FE4-930B-CBFC0DB97E40}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1928,10 +1963,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22452</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1943,40 +1978,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>19252</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>41704</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -1985,13 +2020,13 @@
         <v>2992</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2000,13 +2035,13 @@
         <v>3472</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -2015,61 +2050,61 @@
         <v>6464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>29</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22452</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>24</v>
+      </c>
+      <c r="I6" s="7">
+        <v>19252</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="M6" s="7">
+        <v>53</v>
+      </c>
+      <c r="N6" s="7">
+        <v>41704</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -2134,55 +2169,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>117383</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="H8" s="7">
-        <v>160</v>
-      </c>
-      <c r="I8" s="7">
-        <v>106587</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="7">
-        <v>338</v>
-      </c>
-      <c r="N8" s="7">
-        <v>223969</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>15</v>
@@ -2191,13 +2226,13 @@
         <v>10250</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>14</v>
@@ -2206,13 +2241,13 @@
         <v>9415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
@@ -2221,61 +2256,61 @@
         <v>19666</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>117383</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="7">
+        <v>160</v>
+      </c>
+      <c r="I10" s="7">
+        <v>106587</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="7">
+        <v>338</v>
+      </c>
+      <c r="N10" s="7">
+        <v>223969</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2340,55 +2375,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>301</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>198439</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="H12" s="7">
-        <v>300</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188118</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="7">
-        <v>601</v>
-      </c>
-      <c r="N12" s="7">
-        <v>386557</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>21</v>
@@ -2397,13 +2432,13 @@
         <v>13703</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -2412,13 +2447,13 @@
         <v>7045</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2427,61 +2462,61 @@
         <v>20748</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>198439</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="7">
+        <v>300</v>
+      </c>
+      <c r="I14" s="7">
+        <v>188118</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="7">
+        <v>601</v>
+      </c>
+      <c r="N14" s="7">
+        <v>386557</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>80</v>
@@ -2546,55 +2581,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>140762</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="H16" s="7">
-        <v>219</v>
-      </c>
-      <c r="I16" s="7">
-        <v>131485</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M16" s="7">
-        <v>437</v>
-      </c>
-      <c r="N16" s="7">
-        <v>272247</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>14</v>
@@ -2603,13 +2638,13 @@
         <v>8895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2618,13 +2653,13 @@
         <v>6332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2633,64 +2668,64 @@
         <v>15227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>140762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="G18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H18" s="7">
+        <v>219</v>
+      </c>
+      <c r="I18" s="7">
+        <v>131485</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="7">
+        <v>437</v>
+      </c>
+      <c r="N18" s="7">
+        <v>272247</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="7">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,61 +2781,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>197139</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20" s="7">
-        <v>262</v>
-      </c>
-      <c r="I20" s="7">
-        <v>200276</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="M20" s="7">
-        <v>552</v>
-      </c>
-      <c r="N20" s="7">
-        <v>397415</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>16</v>
@@ -2809,13 +2844,13 @@
         <v>10685</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2824,13 +2859,13 @@
         <v>9039</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>28</v>
@@ -2839,64 +2874,64 @@
         <v>19724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>197139</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>200276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>397415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,55 +2993,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1016</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>676175</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>645717</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>1981</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1321892</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>70</v>
@@ -3015,13 +3050,13 @@
         <v>46525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3030,13 +3065,13 @@
         <v>35304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -3045,64 +3080,64 @@
         <v>81829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1016</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>676175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>645717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1321892</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,6 +3189,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3174,8 +3214,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF0A81A-5C2F-43DB-9CC2-AEF67C8CC6A1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0960B-B9F9-4BAA-9603-9E8EA18327EA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3191,7 +3231,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3292,55 +3332,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>21586</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>43959</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
@@ -3349,13 +3389,13 @@
         <v>3869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3364,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3379,64 +3419,64 @@
         <v>3869</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>21586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>152</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="7">
+        <v>50</v>
+      </c>
+      <c r="N6" s="7">
+        <v>43959</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,55 +3538,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>116727</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="H8" s="7">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>107911</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>224638</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>18</v>
@@ -3555,13 +3595,13 @@
         <v>12502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3570,13 +3610,13 @@
         <v>9073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3585,64 +3625,64 @@
         <v>21575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>116727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>107911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>224638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,55 +3744,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>204340</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>183</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>184</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>184927</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M12" s="7">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>389267</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>189</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>190</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>191</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>28</v>
@@ -3761,13 +3801,13 @@
         <v>19495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3776,13 +3816,13 @@
         <v>21431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3791,64 +3831,64 @@
         <v>40926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>204340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>184927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>389267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,55 +3950,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>147844</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>146466</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>294311</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>29</v>
@@ -3967,13 +4007,13 @@
         <v>18141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -3982,13 +4022,13 @@
         <v>8499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -3997,64 +4037,64 @@
         <v>26639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>147844</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>146466</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>294311</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>212</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,61 +4150,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>187194</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
-        <v>258</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>197591</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>227</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>384785</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>26</v>
@@ -4173,13 +4213,13 @@
         <v>19371</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -4188,13 +4228,13 @@
         <v>12709</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4203,64 +4243,64 @@
         <v>32080</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>187194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>225</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>197591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>228</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>384785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,55 +4362,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>677692</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>242</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>243</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>244</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
-        <v>949</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>659268</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>245</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>246</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="M24" s="7">
-        <v>1915</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1336960</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>249</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>250</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>105</v>
@@ -4379,13 +4419,13 @@
         <v>73377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -4394,13 +4434,13 @@
         <v>51712</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4409,64 +4449,64 @@
         <v>125089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>966</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>677692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>243</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>949</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>659268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1336960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,6 +4558,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4538,8 +4583,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED854B5-8E43-4070-B604-68BE75F893C1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46152E78-D289-49D9-80F1-BAFC87717DD7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4555,7 +4600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4656,55 +4701,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>22987</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="H4" s="7">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>21428</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="M4" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>44415</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>267</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>3</v>
@@ -4713,13 +4758,13 @@
         <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4728,13 +4773,13 @@
         <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4743,64 +4788,64 @@
         <v>3686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>22987</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>263</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>21428</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>44415</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>269</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,55 +4907,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>114429</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H8" s="7">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>105284</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>219713</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>285</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>10</v>
@@ -4919,13 +4964,13 @@
         <v>7394</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>193</v>
+        <v>272</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -4934,13 +4979,13 @@
         <v>5896</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>19</v>
@@ -4949,64 +4994,64 @@
         <v>13290</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>114429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>105284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>283</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>219713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>286</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,55 +5113,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>212615</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>294</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>295</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>197675</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>298</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M12" s="7">
-        <v>633</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>410290</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>17</v>
@@ -5125,13 +5170,13 @@
         <v>11082</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5140,13 +5185,13 @@
         <v>8955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5155,64 +5200,64 @@
         <v>20037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>212615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>197675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>301</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>302</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>410290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>305</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,55 +5319,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>158781</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>151532</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>310314</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -5331,13 +5376,13 @@
         <v>7892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5346,13 +5391,13 @@
         <v>4465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5361,64 +5406,64 @@
         <v>12356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>158781</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>318</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="H18" s="7">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>151532</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="N18" s="7">
-        <v>0</v>
+        <v>310314</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>31</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5474,61 +5519,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>193967</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>335</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
-        <v>275</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>202774</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>11</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>396741</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>340</v>
+        <v>11</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>341</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>342</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>16</v>
@@ -5537,13 +5582,13 @@
         <v>11769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5552,13 +5597,13 @@
         <v>2954</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -5567,64 +5612,64 @@
         <v>14723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>349</v>
+        <v>220</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>193967</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>336</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>202774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>31</v>
+        <v>339</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>32</v>
+        <v>340</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>396741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>342</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>241</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,55 +5731,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>1005</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>702779</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>354</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="H24" s="7">
-        <v>1022</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>678692</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>356</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>358</v>
+        <v>119</v>
       </c>
       <c r="M24" s="7">
-        <v>2027</v>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <v>1381471</v>
+        <v>0</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>360</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>361</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>58</v>
@@ -5743,13 +5788,13 @@
         <v>40724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>363</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5758,13 +5803,13 @@
         <v>23369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -5773,64 +5818,64 @@
         <v>64093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1005</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>702779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>351</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>1022</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>678692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>352</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>353</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>2027</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>1381471</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>356</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,6 +5927,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5902,8 +5952,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8E9589-2A94-4A64-B823-BDF6DDCA48D4}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F0F25-AC9B-46FC-B221-1BEC9F628619}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5919,7 +5969,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6020,55 +6070,55 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>359</v>
       </c>
       <c r="H4" s="7">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16381</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>372</v>
+        <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29079</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -6077,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6092,13 +6142,13 @@
         <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6107,64 +6157,64 @@
         <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>365</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>376</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>16381</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>366</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>367</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>29079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>368</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>381</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,55 +6276,55 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>112352</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>382</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>100735</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>385</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
-        <v>311</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>213086</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7">
         <v>4</v>
@@ -6283,13 +6333,13 @@
         <v>2244</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>389</v>
+        <v>40</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>390</v>
+        <v>123</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6298,13 +6348,13 @@
         <v>3160</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6313,64 +6363,64 @@
         <v>5404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>112352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>378</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>100735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>380</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>381</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>213086</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>31</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>384</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,55 +6482,55 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>243656</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>187678</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>214</v>
       </c>
       <c r="M12" s="7">
-        <v>610</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>431334</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -6489,13 +6539,13 @@
         <v>5536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -6504,13 +6554,13 @@
         <v>4674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6519,64 +6569,64 @@
         <v>10210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>243656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>31</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>32</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>187678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>400</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>401</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>431334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>31</v>
+        <v>403</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>32</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6638,55 +6688,55 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>165752</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>161073</v>
+        <v>833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>410</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
-        <v>431</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>326825</v>
+        <v>833</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>411</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>9</v>
@@ -6695,13 +6745,13 @@
         <v>7456</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6716,7 +6766,7 @@
         <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6725,64 +6775,64 @@
         <v>13867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>165752</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>31</v>
+        <v>419</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>420</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>833</v>
+        <v>161073</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>419</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>422</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>431</v>
       </c>
       <c r="N18" s="7">
-        <v>833</v>
+        <v>326825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>31</v>
+        <v>424</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,61 +6888,61 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>167843</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>11</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>169393</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="M20" s="7">
-        <v>464</v>
-      </c>
-      <c r="N20" s="7">
-        <v>337235</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7">
         <v>10</v>
@@ -6901,13 +6951,13 @@
         <v>7173</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>433</v>
+        <v>67</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6916,13 +6966,13 @@
         <v>2550</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -6931,64 +6981,64 @@
         <v>9723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>167843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>31</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>32</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="7">
+        <v>236</v>
+      </c>
+      <c r="I22" s="7">
+        <v>169393</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M22" s="7">
+        <v>464</v>
+      </c>
+      <c r="N22" s="7">
+        <v>337235</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>32</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7050,55 +7100,55 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>947</v>
+        <v>0</v>
       </c>
       <c r="D24" s="7">
-        <v>702300</v>
+        <v>0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>833</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="H24" s="7">
-        <v>915</v>
-      </c>
-      <c r="I24" s="7">
-        <v>635260</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>1</v>
+      </c>
+      <c r="N24" s="7">
+        <v>833</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1862</v>
-      </c>
-      <c r="N24" s="7">
-        <v>1337560</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>448</v>
-      </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>387</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C25" s="7">
         <v>29</v>
@@ -7107,13 +7157,13 @@
         <v>22410</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -7122,13 +7172,13 @@
         <v>17201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>328</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -7137,10 +7187,10 @@
         <v>39611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>454</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>455</v>
@@ -7149,52 +7199,52 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>947</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>702300</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>31</v>
+        <v>456</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>32</v>
+        <v>457</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>915</v>
       </c>
       <c r="I26" s="7">
-        <v>833</v>
+        <v>635260</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>460</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>461</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>1862</v>
       </c>
       <c r="N26" s="7">
-        <v>833</v>
+        <v>1337560</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>31</v>
+        <v>463</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,6 +7296,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6918AE72-8452-4DD0-8DC2-2C013EA703F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792BA5F7-2301-4A2C-9C73-02D27C90CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A5DBF49-0801-490F-9E07-5FAD213C115C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{745819D0-7C02-4524-B3D9-62382532AA06}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="463">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -95,10 +95,10 @@
     <t>11,76%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
   </si>
   <si>
     <t>15,28%</t>
@@ -107,16 +107,16 @@
     <t>5,73%</t>
   </si>
   <si>
-    <t>32,51%</t>
+    <t>32,03%</t>
   </si>
   <si>
     <t>13,42%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -125,16 +125,16 @@
     <t>88,24%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>67,49%</t>
+    <t>67,97%</t>
   </si>
   <si>
     <t>94,27%</t>
@@ -143,16 +143,16 @@
     <t>86,58%</t>
   </si>
   <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,99%</t>
@@ -167,181 +167,175 @@
     <t>8,03%</t>
   </si>
   <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>8,12%</t>
   </si>
   <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
   </si>
   <si>
     <t>94,7%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -359,1018 +353,1033 @@
     <t>5,14%</t>
   </si>
   <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
     <t>4,32%</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>3,58%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>96,42%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2015 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
     <t>97,2%</t>
   </si>
   <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
   </si>
   <si>
     <t>0,2%</t>
@@ -1379,61 +1388,46 @@
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>97,24%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>95,93%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C379348A-825A-4FE4-930B-CBFC0DB97E40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78FE2AC-E7DD-43B9-8E26-AC0800DD6A34}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2465,10 +2459,10 @@
         <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2477,13 @@
         <v>198439</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>300</v>
@@ -2498,13 +2492,13 @@
         <v>188118</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>601</v>
@@ -2513,13 +2507,13 @@
         <v>386557</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,7 +2569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2593,7 +2587,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2608,7 +2602,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2623,7 +2617,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2632,13 @@
         <v>8895</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2653,13 +2647,13 @@
         <v>6332</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>24</v>
@@ -2668,13 +2662,13 @@
         <v>15227</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2683,13 @@
         <v>140762</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="H18" s="7">
         <v>219</v>
@@ -2704,13 +2698,13 @@
         <v>131485</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>437</v>
@@ -2719,13 +2713,13 @@
         <v>272247</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2781,7 +2775,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2799,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2814,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2829,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2838,13 @@
         <v>10685</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2898,10 +2892,10 @@
         <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>262</v>
@@ -2910,13 +2904,13 @@
         <v>200276</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>552</v>
@@ -2925,13 +2919,13 @@
         <v>397415</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3020,7 +3014,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3035,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3050,13 +3044,13 @@
         <v>46525</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -3065,13 +3059,13 @@
         <v>35304</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -3080,13 +3074,13 @@
         <v>81829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3095,13 @@
         <v>676175</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H26" s="7">
         <v>965</v>
@@ -3116,13 +3110,13 @@
         <v>645717</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M26" s="7">
         <v>1981</v>
@@ -3131,13 +3125,13 @@
         <v>1321892</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,7 +3187,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3214,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A0960B-B9F9-4BAA-9603-9E8EA18327EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A8318-6700-4A87-83EF-ACD682266142}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3231,7 +3225,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3344,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3359,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3374,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,13 +3383,13 @@
         <v>3869</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3410,7 +3404,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -3419,13 +3413,13 @@
         <v>3869</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3434,13 @@
         <v>21586</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -3455,10 +3449,10 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>36</v>
@@ -3470,13 +3464,13 @@
         <v>43959</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3550,7 +3544,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3565,7 +3559,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3580,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3589,13 @@
         <v>12502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>13</v>
@@ -3610,13 +3604,13 @@
         <v>9073</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>31</v>
@@ -3625,13 +3619,13 @@
         <v>21575</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3640,13 @@
         <v>116727</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -3661,13 +3655,13 @@
         <v>107911</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>315</v>
@@ -3676,13 +3670,13 @@
         <v>224638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3765,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3801,13 +3795,13 @@
         <v>19495</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -3816,13 +3810,13 @@
         <v>21431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -3831,13 +3825,13 @@
         <v>40926</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3846,13 @@
         <v>204340</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
         <v>287</v>
@@ -3867,13 +3861,13 @@
         <v>184927</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>583</v>
@@ -3882,13 +3876,13 @@
         <v>389267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,7 +3938,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3962,7 +3956,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3977,7 +3971,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3992,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,13 +4001,13 @@
         <v>18141</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4022,13 +4016,13 @@
         <v>8499</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -4037,13 +4031,13 @@
         <v>26639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,13 +4052,13 @@
         <v>147844</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="H18" s="7">
         <v>228</v>
@@ -4073,13 +4067,13 @@
         <v>146466</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>217</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -4088,13 +4082,13 @@
         <v>294311</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4150,7 +4144,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4168,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4183,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4198,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,13 +4207,13 @@
         <v>19371</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H21" s="7">
         <v>17</v>
@@ -4228,13 +4222,13 @@
         <v>12709</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>220</v>
+        <v>64</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4243,13 +4237,13 @@
         <v>32080</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4258,13 @@
         <v>187194</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H22" s="7">
         <v>258</v>
@@ -4279,13 +4273,13 @@
         <v>197591</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="M22" s="7">
         <v>513</v>
@@ -4294,13 +4288,13 @@
         <v>384785</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4368,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4389,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4404,7 +4398,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4413,13 @@
         <v>73377</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H25" s="7">
         <v>75</v>
@@ -4434,13 +4428,13 @@
         <v>51712</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M25" s="7">
         <v>180</v>
@@ -4449,13 +4443,13 @@
         <v>125089</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>242</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4470,13 +4464,13 @@
         <v>677692</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
         <v>949</v>
@@ -4485,13 +4479,13 @@
         <v>659268</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>1915</v>
@@ -4500,13 +4494,13 @@
         <v>1336960</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,7 +4556,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4583,7 +4577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46152E78-D289-49D9-80F1-BAFC87717DD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A6B32-2F45-484E-B4B0-FD7B0022285A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4600,7 +4594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4713,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4728,7 +4722,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4743,7 +4737,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4752,13 @@
         <v>2587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>256</v>
+        <v>151</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4773,13 +4767,13 @@
         <v>1099</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4788,13 +4782,13 @@
         <v>3686</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4803,13 @@
         <v>22987</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
       <c r="H6" s="7">
         <v>23</v>
@@ -4830,7 +4824,7 @@
         <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -4934,7 +4928,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4979,7 +4973,7 @@
         <v>5896</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>275</v>
@@ -5030,7 +5024,7 @@
         <v>105284</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>283</v>
@@ -5173,10 +5167,10 @@
         <v>291</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>292</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -5185,13 +5179,13 @@
         <v>8955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -5200,13 +5194,13 @@
         <v>20037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5215,13 @@
         <v>212615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
         <v>319</v>
@@ -5236,13 +5230,13 @@
         <v>197675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M14" s="7">
         <v>633</v>
@@ -5251,13 +5245,13 @@
         <v>410290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,7 +5307,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5331,7 +5325,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5346,7 +5340,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5361,7 +5355,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5379,10 +5373,10 @@
         <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -5391,13 +5385,13 @@
         <v>4465</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -5406,13 +5400,13 @@
         <v>12356</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5421,13 @@
         <v>158781</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H18" s="7">
         <v>251</v>
@@ -5442,13 +5436,13 @@
         <v>151532</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M18" s="7">
         <v>487</v>
@@ -5457,13 +5451,13 @@
         <v>310314</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5519,7 +5513,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5537,7 +5531,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5552,7 +5546,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5567,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5576,13 @@
         <v>11769</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5597,13 +5591,13 @@
         <v>2954</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -5612,13 +5606,13 @@
         <v>14723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5627,13 @@
         <v>193967</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H22" s="7">
         <v>275</v>
@@ -5648,13 +5642,13 @@
         <v>202774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M22" s="7">
         <v>549</v>
@@ -5663,13 +5657,13 @@
         <v>396741</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,7 +5737,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5758,7 +5752,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -5773,7 +5767,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5782,13 @@
         <v>40724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>71</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5803,13 +5797,13 @@
         <v>23369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M25" s="7">
         <v>94</v>
@@ -5818,13 +5812,13 @@
         <v>64093</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5833,13 @@
         <v>702779</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>79</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>1022</v>
@@ -5854,13 +5848,13 @@
         <v>678692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M26" s="7">
         <v>2027</v>
@@ -5869,13 +5863,13 @@
         <v>1381471</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,7 +5925,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5952,7 +5946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3F0F25-AC9B-46FC-B221-1BEC9F628619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017218B9-1B6F-4BB3-BCB4-A7B3176E3BBD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5969,7 +5963,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6082,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6097,7 +6091,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6112,7 +6106,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6127,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6142,13 +6136,13 @@
         <v>406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6157,13 +6151,13 @@
         <v>406</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,10 +6172,10 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>36</v>
@@ -6193,13 +6187,13 @@
         <v>16381</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>46</v>
@@ -6208,13 +6202,13 @@
         <v>29079</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6288,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6303,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6318,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6327,13 @@
         <v>2244</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>375</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6351,10 +6345,10 @@
         <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>373</v>
+        <v>38</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -6363,13 +6357,13 @@
         <v>5404</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>376</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6378,13 @@
         <v>112352</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>133</v>
+        <v>381</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="H10" s="7">
         <v>163</v>
@@ -6399,13 +6393,13 @@
         <v>100735</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M10" s="7">
         <v>311</v>
@@ -6414,13 +6408,13 @@
         <v>213086</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6488,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6509,7 +6503,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -6524,7 +6518,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6533,13 @@
         <v>5536</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -6554,13 +6548,13 @@
         <v>4674</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -6569,13 +6563,13 @@
         <v>10210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6584,13 @@
         <v>243656</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H14" s="7">
         <v>274</v>
@@ -6605,13 +6599,13 @@
         <v>187678</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>610</v>
@@ -6620,13 +6614,13 @@
         <v>431334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,7 +6676,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6700,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -6709,13 +6703,13 @@
         <v>833</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -6724,13 +6718,13 @@
         <v>833</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6739,13 @@
         <v>7456</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6760,13 +6754,13 @@
         <v>6411</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -6775,13 +6769,13 @@
         <v>13867</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6790,13 @@
         <v>165752</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H18" s="7">
         <v>215</v>
@@ -6811,13 +6805,13 @@
         <v>161073</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M18" s="7">
         <v>431</v>
@@ -6826,13 +6820,13 @@
         <v>326825</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,7 +6882,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6906,7 +6900,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6921,7 +6915,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6936,7 +6930,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6945,13 @@
         <v>7173</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>67</v>
+        <v>430</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -6966,13 +6960,13 @@
         <v>2550</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -6981,13 +6975,13 @@
         <v>9723</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +6996,13 @@
         <v>167843</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="H22" s="7">
         <v>236</v>
@@ -7017,13 +7011,13 @@
         <v>169393</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M22" s="7">
         <v>464</v>
@@ -7032,13 +7026,13 @@
         <v>337235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,7 +7106,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -7121,13 +7115,13 @@
         <v>833</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -7136,13 +7130,13 @@
         <v>833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7151,13 @@
         <v>22410</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>104</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -7172,13 +7166,13 @@
         <v>17201</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -7190,7 +7184,7 @@
         <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>455</v>
@@ -7208,13 +7202,13 @@
         <v>702300</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H26" s="7">
         <v>915</v>
@@ -7223,13 +7217,13 @@
         <v>635260</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>460</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>461</v>
+        <v>422</v>
       </c>
       <c r="M26" s="7">
         <v>1862</v>
@@ -7238,13 +7232,13 @@
         <v>1337560</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7300,7 +7294,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP11-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP11-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792BA5F7-2301-4A2C-9C73-02D27C90CDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21702C8C-B5AA-4FE8-B00C-C8D434A359BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{745819D0-7C02-4524-B3D9-62382532AA06}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3D574BDE-1F0C-4162-986D-D22D32B3DD68}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="407">
   <si>
     <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>996.0</t>
@@ -80,1354 +80,1186 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
     <t>8,03%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
   </si>
   <si>
     <t>91,97%</t>
   </si>
   <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2016 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>Menores según si han sufrido algún accidente que haya limitado su actividad normal en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,38%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
     <t>97,86%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
 </sst>
 </file>
@@ -1839,8 +1671,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78FE2AC-E7DD-43B9-8E26-AC0800DD6A34}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D81C75-2E6B-49CD-BAE3-1A35A73C2E50}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2008,10 +1840,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>2992</v>
+        <v>12888</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2023,10 +1855,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>3472</v>
+        <v>13243</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -2038,10 +1870,10 @@
         <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="N5" s="7">
-        <v>6464</v>
+        <v>26130</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -2059,10 +1891,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="D6" s="7">
-        <v>22452</v>
+        <v>125838</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -2074,10 +1906,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>19252</v>
+        <v>139834</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2089,10 +1921,10 @@
         <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>391</v>
       </c>
       <c r="N6" s="7">
-        <v>41704</v>
+        <v>265673</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -2110,10 +1942,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D7" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -2125,10 +1957,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I7" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -2140,10 +1972,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N7" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -2214,10 +2046,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7">
-        <v>10250</v>
+        <v>7045</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>41</v>
@@ -2229,10 +2061,10 @@
         <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>9415</v>
+        <v>13703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>44</v>
@@ -2244,10 +2076,10 @@
         <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N9" s="7">
-        <v>19666</v>
+        <v>20748</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
@@ -2265,10 +2097,10 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>178</v>
+        <v>300</v>
       </c>
       <c r="D10" s="7">
-        <v>117383</v>
+        <v>188118</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2280,10 +2112,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>160</v>
+        <v>301</v>
       </c>
       <c r="I10" s="7">
-        <v>106587</v>
+        <v>198439</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2295,10 +2127,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>338</v>
+        <v>601</v>
       </c>
       <c r="N10" s="7">
-        <v>223969</v>
+        <v>386557</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2316,10 +2148,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D11" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -2331,10 +2163,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I11" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -2346,10 +2178,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N11" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -2420,10 +2252,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>13703</v>
+        <v>6332</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
@@ -2435,10 +2267,10 @@
         <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>7045</v>
+        <v>8895</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>66</v>
@@ -2450,19 +2282,19 @@
         <v>68</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>20748</v>
+        <v>15227</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,49 +2303,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>301</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>198439</v>
+        <v>131485</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>300</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>188118</v>
+        <v>140762</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>601</v>
+        <v>437</v>
       </c>
       <c r="N14" s="7">
-        <v>386557</v>
+        <v>272247</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,10 +2354,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D15" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -2537,10 +2369,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -2552,10 +2384,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -2569,7 +2401,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2587,7 +2419,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2602,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2617,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2458,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>8895</v>
+        <v>9039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>6332</v>
+        <v>10685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>15227</v>
+        <v>19724</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2509,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D18" s="7">
-        <v>140762</v>
+        <v>200276</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="I18" s="7">
-        <v>131485</v>
+        <v>197139</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>437</v>
+        <v>552</v>
       </c>
       <c r="N18" s="7">
-        <v>272247</v>
+        <v>397415</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D19" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -2743,10 +2575,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I19" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -2758,10 +2590,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N19" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -2775,7 +2607,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2793,7 +2625,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2808,7 +2640,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2823,7 +2655,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2832,49 +2664,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>10685</v>
+        <v>35304</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="H21" s="7">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I21" s="7">
-        <v>9039</v>
+        <v>46525</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M21" s="7">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="N21" s="7">
-        <v>19724</v>
+        <v>81829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2883,49 +2715,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>290</v>
+        <v>965</v>
       </c>
       <c r="D22" s="7">
-        <v>197139</v>
+        <v>645717</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
-        <v>262</v>
+        <v>1016</v>
       </c>
       <c r="I22" s="7">
-        <v>200276</v>
+        <v>676175</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M22" s="7">
-        <v>552</v>
+        <v>1981</v>
       </c>
       <c r="N22" s="7">
-        <v>397415</v>
+        <v>1321892</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,10 +2766,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D23" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -2949,10 +2781,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I23" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -2964,10 +2796,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N23" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -2980,222 +2812,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>70</v>
-      </c>
-      <c r="D25" s="7">
-        <v>46525</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H25" s="7">
-        <v>53</v>
-      </c>
-      <c r="I25" s="7">
-        <v>35304</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M25" s="7">
-        <v>123</v>
-      </c>
-      <c r="N25" s="7">
-        <v>81829</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1016</v>
-      </c>
-      <c r="D26" s="7">
-        <v>676175</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="7">
-        <v>965</v>
-      </c>
-      <c r="I26" s="7">
-        <v>645717</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1981</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1321892</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D27" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I27" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3208,8 +2833,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D23A8318-6700-4A87-83EF-ACD682266142}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E0C33F1-261A-4958-BAD1-CD0237C6B274}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3225,7 +2850,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3338,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3353,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3368,7 +2993,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,49 +3002,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D5" s="7">
-        <v>3869</v>
+        <v>9073</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16370</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>3869</v>
+        <v>25443</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,49 +3053,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="D6" s="7">
-        <v>21586</v>
+        <v>130284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>189</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>138314</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>43959</v>
+        <v>268598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D7" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -3494,10 +3119,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I7" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -3509,10 +3134,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N7" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -3544,7 +3169,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3559,7 +3184,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3574,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,49 +3208,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>12502</v>
+        <v>21431</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H9" s="7">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="I9" s="7">
-        <v>9073</v>
+        <v>19495</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M9" s="7">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="N9" s="7">
-        <v>21575</v>
+        <v>40926</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,49 +3259,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>165</v>
+        <v>287</v>
       </c>
       <c r="D10" s="7">
-        <v>116727</v>
+        <v>184927</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
-        <v>150</v>
+        <v>296</v>
       </c>
       <c r="I10" s="7">
-        <v>107911</v>
+        <v>204340</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="N10" s="7">
-        <v>224638</v>
+        <v>389267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,10 +3310,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -3700,10 +3325,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I11" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3715,10 +3340,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N11" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -3750,7 +3375,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3765,7 +3390,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -3780,7 +3405,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,49 +3414,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>19495</v>
+        <v>8499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13" s="7">
-        <v>21431</v>
+        <v>18141</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M13" s="7">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>40926</v>
+        <v>26639</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,49 +3465,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="D14" s="7">
-        <v>204340</v>
+        <v>146466</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="H14" s="7">
-        <v>287</v>
+        <v>226</v>
       </c>
       <c r="I14" s="7">
-        <v>184927</v>
+        <v>147844</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="M14" s="7">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="N14" s="7">
-        <v>389267</v>
+        <v>294311</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,10 +3516,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>324</v>
+        <v>241</v>
       </c>
       <c r="D15" s="7">
-        <v>223835</v>
+        <v>154965</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -3906,10 +3531,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>319</v>
+        <v>255</v>
       </c>
       <c r="I15" s="7">
-        <v>206358</v>
+        <v>165985</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -3921,10 +3546,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>643</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>430193</v>
+        <v>320950</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -3938,7 +3563,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3956,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3971,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3986,7 +3611,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,49 +3620,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>18141</v>
+        <v>12709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I17" s="7">
-        <v>8499</v>
+        <v>19371</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N17" s="7">
-        <v>26639</v>
+        <v>32080</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,49 +3671,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="D18" s="7">
-        <v>147844</v>
+        <v>197591</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="H18" s="7">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="I18" s="7">
-        <v>146466</v>
+        <v>187194</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="M18" s="7">
-        <v>454</v>
+        <v>513</v>
       </c>
       <c r="N18" s="7">
-        <v>294311</v>
+        <v>384785</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,10 +3722,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D19" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -4112,10 +3737,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I19" s="7">
-        <v>154965</v>
+        <v>206565</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -4127,10 +3752,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N19" s="7">
-        <v>320950</v>
+        <v>416865</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -4144,7 +3769,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4162,7 +3787,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4177,7 +3802,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4192,7 +3817,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,49 +3826,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D21" s="7">
-        <v>19371</v>
+        <v>51712</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="H21" s="7">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="I21" s="7">
-        <v>12709</v>
+        <v>73377</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>64</v>
+        <v>207</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="M21" s="7">
-        <v>43</v>
+        <v>180</v>
       </c>
       <c r="N21" s="7">
-        <v>32080</v>
+        <v>125089</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,49 +3877,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>255</v>
+        <v>949</v>
       </c>
       <c r="D22" s="7">
-        <v>187194</v>
+        <v>659268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="H22" s="7">
-        <v>258</v>
+        <v>966</v>
       </c>
       <c r="I22" s="7">
-        <v>197591</v>
+        <v>677692</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="M22" s="7">
-        <v>513</v>
+        <v>1915</v>
       </c>
       <c r="N22" s="7">
-        <v>384785</v>
+        <v>1336960</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,10 +3928,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>281</v>
+        <v>1024</v>
       </c>
       <c r="D23" s="7">
-        <v>206565</v>
+        <v>710980</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -4318,10 +3943,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>275</v>
+        <v>1071</v>
       </c>
       <c r="I23" s="7">
-        <v>210300</v>
+        <v>751069</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -4333,10 +3958,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>556</v>
+        <v>2095</v>
       </c>
       <c r="N23" s="7">
-        <v>416865</v>
+        <v>1462049</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -4349,222 +3974,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>105</v>
-      </c>
-      <c r="D25" s="7">
-        <v>73377</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H25" s="7">
-        <v>75</v>
-      </c>
-      <c r="I25" s="7">
-        <v>51712</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M25" s="7">
-        <v>180</v>
-      </c>
-      <c r="N25" s="7">
-        <v>125089</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>966</v>
-      </c>
-      <c r="D26" s="7">
-        <v>677692</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H26" s="7">
-        <v>949</v>
-      </c>
-      <c r="I26" s="7">
-        <v>659268</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1915</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1336960</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1071</v>
-      </c>
-      <c r="D27" s="7">
-        <v>751069</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I27" s="7">
-        <v>710980</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2095</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1462049</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>142</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4577,8 +3995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE9A6B32-2F45-484E-B4B0-FD7B0022285A}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E610D973-373E-4B8D-A6EC-7BDE7E05718D}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4594,7 +4012,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4707,7 +4125,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4722,7 +4140,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4737,7 +4155,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,49 +4164,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>2587</v>
+        <v>6996</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>151</v>
+        <v>226</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>1099</v>
+        <v>9981</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>3686</v>
+        <v>16976</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,49 +4215,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>22987</v>
+        <v>126711</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="H6" s="7">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="I6" s="7">
-        <v>21428</v>
+        <v>137416</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="M6" s="7">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="N6" s="7">
-        <v>44415</v>
+        <v>264128</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4848,10 +4266,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D7" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -4863,10 +4281,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I7" s="7">
-        <v>22527</v>
+        <v>147397</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -4878,10 +4296,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>381</v>
       </c>
       <c r="N7" s="7">
-        <v>48101</v>
+        <v>281104</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -4913,7 +4331,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4928,7 +4346,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4943,7 +4361,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>60</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,49 +4370,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D9" s="7">
-        <v>7394</v>
+        <v>8955</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="H9" s="7">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="I9" s="7">
-        <v>5896</v>
+        <v>11082</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M9" s="7">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N9" s="7">
-        <v>13290</v>
+        <v>20037</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,49 +4421,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>114429</v>
+        <v>197675</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="H10" s="7">
-        <v>154</v>
+        <v>314</v>
       </c>
       <c r="I10" s="7">
-        <v>105284</v>
+        <v>212615</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>256</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
-        <v>308</v>
+        <v>633</v>
       </c>
       <c r="N10" s="7">
-        <v>219713</v>
+        <v>410290</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>333</v>
       </c>
       <c r="D11" s="7">
-        <v>121823</v>
+        <v>206630</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -5069,10 +4487,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>111180</v>
+        <v>223697</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -5084,10 +4502,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>327</v>
+        <v>664</v>
       </c>
       <c r="N11" s="7">
-        <v>233003</v>
+        <v>430327</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -5119,7 +4537,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5134,7 +4552,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5149,7 +4567,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,49 +4576,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>11082</v>
+        <v>4465</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>8955</v>
+        <v>7892</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="N13" s="7">
-        <v>20037</v>
+        <v>12356</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5209,49 +4627,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7">
-        <v>212615</v>
+        <v>151532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="H14" s="7">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="I14" s="7">
-        <v>197675</v>
+        <v>158781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
-        <v>633</v>
+        <v>487</v>
       </c>
       <c r="N14" s="7">
-        <v>410290</v>
+        <v>310314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>308</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,10 +4678,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D15" s="7">
-        <v>223697</v>
+        <v>155997</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -5275,10 +4693,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I15" s="7">
-        <v>206630</v>
+        <v>166673</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -5290,10 +4708,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>664</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>430327</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -5307,7 +4725,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5325,7 +4743,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>309</v>
+        <v>279</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5340,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5355,7 +4773,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,49 +4782,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>7892</v>
+        <v>2954</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
-        <v>4465</v>
+        <v>11769</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
       </c>
       <c r="N17" s="7">
-        <v>12356</v>
+        <v>14723</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,49 +4833,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="D18" s="7">
-        <v>158781</v>
+        <v>202774</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="H18" s="7">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>151532</v>
+        <v>193967</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>323</v>
+        <v>294</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="M18" s="7">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="N18" s="7">
-        <v>310314</v>
+        <v>396741</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>297</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,10 +4884,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="D19" s="7">
-        <v>166673</v>
+        <v>205728</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -5481,10 +4899,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I19" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -5496,10 +4914,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="N19" s="7">
-        <v>322670</v>
+        <v>411464</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -5513,7 +4931,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5531,7 +4949,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>328</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5546,7 +4964,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5561,7 +4979,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,49 +4988,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D21" s="7">
-        <v>11769</v>
+        <v>23369</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>2954</v>
+        <v>40724</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>334</v>
+        <v>302</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="M21" s="7">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="N21" s="7">
-        <v>14723</v>
+        <v>64093</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,49 +5039,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>274</v>
+        <v>1022</v>
       </c>
       <c r="D22" s="7">
-        <v>193967</v>
+        <v>678692</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="H22" s="7">
-        <v>275</v>
+        <v>1005</v>
       </c>
       <c r="I22" s="7">
-        <v>202774</v>
+        <v>702779</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>341</v>
+        <v>176</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="M22" s="7">
-        <v>549</v>
+        <v>2027</v>
       </c>
       <c r="N22" s="7">
-        <v>396741</v>
+        <v>1381471</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,10 +5090,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>290</v>
+        <v>1058</v>
       </c>
       <c r="D23" s="7">
-        <v>205736</v>
+        <v>702061</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -5687,10 +5105,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>279</v>
+        <v>1063</v>
       </c>
       <c r="I23" s="7">
-        <v>205728</v>
+        <v>743503</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -5702,10 +5120,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>569</v>
+        <v>2121</v>
       </c>
       <c r="N23" s="7">
-        <v>411464</v>
+        <v>1445564</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -5718,222 +5136,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>58</v>
-      </c>
-      <c r="D25" s="7">
-        <v>40724</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H25" s="7">
-        <v>36</v>
-      </c>
-      <c r="I25" s="7">
-        <v>23369</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M25" s="7">
-        <v>94</v>
-      </c>
-      <c r="N25" s="7">
-        <v>64093</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1005</v>
-      </c>
-      <c r="D26" s="7">
-        <v>702779</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1022</v>
-      </c>
-      <c r="I26" s="7">
-        <v>678692</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2027</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1381471</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1063</v>
-      </c>
-      <c r="D27" s="7">
-        <v>743503</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I27" s="7">
-        <v>702061</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1445564</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>142</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5946,8 +5157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017218B9-1B6F-4BB3-BCB4-A7B3176E3BBD}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DBFE9D-0D16-4768-AEB2-3BCB4BD7E155}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5963,7 +5174,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>360</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6076,7 +5287,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6091,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6106,7 +5317,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,49 +5326,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>3497</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>406</v>
+        <v>2308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>406</v>
+        <v>5805</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>365</v>
+        <v>86</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,49 +5377,49 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>113783</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>36</v>
+        <v>328</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="I6" s="7">
-        <v>16381</v>
+        <v>138104</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="N6" s="7">
-        <v>29079</v>
+        <v>251888</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>370</v>
+        <v>96</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,10 +5428,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>36</v>
@@ -6232,10 +5443,10 @@
         <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>36</v>
@@ -6247,10 +5458,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -6282,7 +5493,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6297,7 +5508,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6312,7 +5523,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,49 +5532,49 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>2244</v>
+        <v>4532</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="H9" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I9" s="7">
-        <v>3160</v>
+        <v>5899</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>15</v>
+        <v>339</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="M9" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>5404</v>
+        <v>10431</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>378</v>
+        <v>341</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>271</v>
+        <v>342</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,49 +5583,49 @@
         <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>148</v>
+        <v>274</v>
       </c>
       <c r="D10" s="7">
-        <v>112352</v>
+        <v>185980</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
-        <v>163</v>
+        <v>336</v>
       </c>
       <c r="I10" s="7">
-        <v>100735</v>
+        <v>248056</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
-        <v>311</v>
+        <v>610</v>
       </c>
       <c r="N10" s="7">
-        <v>213086</v>
+        <v>434037</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>388</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,10 +5634,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>36</v>
@@ -6438,10 +5649,10 @@
         <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>253955</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -6453,10 +5664,10 @@
         <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>622</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>444468</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -6476,19 +5687,19 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>389</v>
+        <v>354</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6503,22 +5714,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,49 +5738,49 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>5536</v>
+        <v>6546</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>4674</v>
+        <v>8289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N13" s="7">
-        <v>10210</v>
+        <v>14835</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>398</v>
+        <v>64</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,49 +5789,49 @@
         <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>336</v>
+        <v>215</v>
       </c>
       <c r="D14" s="7">
-        <v>243656</v>
+        <v>182624</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>400</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>401</v>
+        <v>157</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>402</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>187678</v>
+        <v>176997</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
-        <v>610</v>
+        <v>431</v>
       </c>
       <c r="N14" s="7">
-        <v>431334</v>
+        <v>359621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>407</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>408</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,10 +5840,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>342</v>
+        <v>226</v>
       </c>
       <c r="D15" s="7">
-        <v>249192</v>
+        <v>189985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>36</v>
@@ -6644,10 +5855,10 @@
         <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>36</v>
@@ -6659,10 +5870,10 @@
         <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>622</v>
+        <v>451</v>
       </c>
       <c r="N15" s="7">
-        <v>441544</v>
+        <v>375271</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>36</v>
@@ -6676,7 +5887,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6694,37 +5905,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>833</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1</v>
-      </c>
-      <c r="N16" s="7">
-        <v>833</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>411</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,49 +5944,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>7456</v>
+        <v>2577</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>414</v>
+        <v>372</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>167</v>
+        <v>374</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>6411</v>
+        <v>7538</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
       <c r="M17" s="7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>13867</v>
+        <v>10115</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,49 +5995,49 @@
         <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D18" s="7">
-        <v>165752</v>
+        <v>165385</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="H18" s="7">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="I18" s="7">
-        <v>161073</v>
+        <v>173700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>423</v>
+        <v>385</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
-        <v>431</v>
+        <v>464</v>
       </c>
       <c r="N18" s="7">
-        <v>326825</v>
+        <v>339086</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>425</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>426</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,10 +6046,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -6850,10 +6061,10 @@
         <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>168317</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>36</v>
@@ -6865,10 +6076,10 @@
         <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="N19" s="7">
-        <v>341525</v>
+        <v>349201</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -6882,25 +6093,25 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6915,22 +6126,22 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,49 +6150,49 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D21" s="7">
-        <v>7173</v>
+        <v>17151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>429</v>
+        <v>354</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>430</v>
+        <v>394</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>431</v>
+        <v>395</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="I21" s="7">
-        <v>2550</v>
+        <v>24034</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>432</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>433</v>
+        <v>396</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>434</v>
+        <v>397</v>
       </c>
       <c r="M21" s="7">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N21" s="7">
-        <v>9723</v>
+        <v>41185</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>435</v>
+        <v>398</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>436</v>
+        <v>399</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>437</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,49 +6201,49 @@
         <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>228</v>
+        <v>915</v>
       </c>
       <c r="D22" s="7">
-        <v>167843</v>
+        <v>647773</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>438</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>440</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>236</v>
+        <v>947</v>
       </c>
       <c r="I22" s="7">
-        <v>169393</v>
+        <v>736858</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>441</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>442</v>
+        <v>403</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>443</v>
+        <v>404</v>
       </c>
       <c r="M22" s="7">
-        <v>464</v>
+        <v>1862</v>
       </c>
       <c r="N22" s="7">
-        <v>337235</v>
+        <v>1384632</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>444</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>445</v>
+        <v>238</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,10 +6252,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>942</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>665740</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>36</v>
@@ -7056,10 +6267,10 @@
         <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I23" s="7">
-        <v>171943</v>
+        <v>760892</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>36</v>
@@ -7071,10 +6282,10 @@
         <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>478</v>
+        <v>1918</v>
       </c>
       <c r="N23" s="7">
-        <v>346958</v>
+        <v>1426632</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>36</v>
@@ -7087,222 +6298,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>833</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="M24" s="7">
-        <v>1</v>
-      </c>
-      <c r="N24" s="7">
-        <v>833</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>29</v>
-      </c>
-      <c r="D25" s="7">
-        <v>22410</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="H25" s="7">
-        <v>26</v>
-      </c>
-      <c r="I25" s="7">
-        <v>17201</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="M25" s="7">
-        <v>55</v>
-      </c>
-      <c r="N25" s="7">
-        <v>39611</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="7">
-        <v>947</v>
-      </c>
-      <c r="D26" s="7">
-        <v>702300</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="H26" s="7">
-        <v>915</v>
-      </c>
-      <c r="I26" s="7">
-        <v>635260</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1862</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1337560</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>976</v>
-      </c>
-      <c r="D27" s="7">
-        <v>724710</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="7">
-        <v>942</v>
-      </c>
-      <c r="I27" s="7">
-        <v>653294</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1378003</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>142</v>
+      <c r="A24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
